--- a/Final_Project_GM/Cow/낙농_김예은_20240910.xlsx
+++ b/Final_Project_GM/Cow/낙농_김예은_20240910.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="113">
   <si>
     <t>가축 종류</t>
   </si>
@@ -95,10 +95,6 @@
   </si>
   <si>
     <t>작성 금지</t>
-  </si>
-  <si>
-    <t>500kg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
@@ -109,157 +105,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>121cm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>많음</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>122cm</t>
-  </si>
-  <si>
-    <t>520kg</t>
-  </si>
-  <si>
-    <t>123cm</t>
-  </si>
-  <si>
-    <t>530kg</t>
-  </si>
-  <si>
-    <t>124cm</t>
-  </si>
-  <si>
-    <t>540kg</t>
-  </si>
-  <si>
-    <t>125cm</t>
-  </si>
-  <si>
-    <t>550kg</t>
-  </si>
-  <si>
     <t>F</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>126cm</t>
-  </si>
-  <si>
-    <t>560kg</t>
-  </si>
-  <si>
-    <t>127cm</t>
-  </si>
-  <si>
-    <t>570kg</t>
-  </si>
-  <si>
-    <t>128cm</t>
-  </si>
-  <si>
-    <t>580kg</t>
-  </si>
-  <si>
-    <t>129cm</t>
-  </si>
-  <si>
-    <t>590kg</t>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>130cm</t>
-  </si>
-  <si>
-    <t>600kg</t>
-  </si>
-  <si>
-    <t>131cm</t>
-  </si>
-  <si>
-    <t>610kg</t>
-  </si>
-  <si>
-    <t>132cm</t>
-  </si>
-  <si>
-    <t>620kg</t>
-  </si>
-  <si>
-    <t>133cm</t>
-  </si>
-  <si>
-    <t>630kg</t>
-  </si>
-  <si>
-    <t>134cm</t>
-  </si>
-  <si>
-    <t>640kg</t>
-  </si>
-  <si>
-    <t>135cm</t>
-  </si>
-  <si>
-    <t>650kg</t>
-  </si>
-  <si>
-    <t>136cm</t>
-  </si>
-  <si>
-    <t>660kg</t>
-  </si>
-  <si>
-    <t>137cm</t>
-  </si>
-  <si>
-    <t>670kg</t>
-  </si>
-  <si>
-    <t>138cm</t>
-  </si>
-  <si>
-    <t>139cm</t>
-  </si>
-  <si>
-    <t>140cm</t>
-  </si>
-  <si>
-    <t>730kg</t>
-  </si>
-  <si>
-    <t>740kg</t>
-  </si>
-  <si>
-    <t>750kg</t>
-  </si>
-  <si>
-    <t>760kg</t>
-  </si>
-  <si>
-    <t>770kg</t>
-  </si>
-  <si>
-    <t>780kg</t>
-  </si>
-  <si>
-    <t>790kg</t>
-  </si>
-  <si>
-    <t>800kg</t>
-  </si>
-  <si>
-    <t>810kg</t>
-  </si>
-  <si>
-    <t>820kg</t>
-  </si>
-  <si>
     <t>F</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -290,13 +147,6 @@
     <t xml:space="preserve">전라북도 임실군 </t>
   </si>
   <si>
-    <t>120cm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 kg</t>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -311,13 +161,6 @@
     <t>B002</t>
   </si>
   <si>
-    <t>510kg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 kg</t>
-  </si>
-  <si>
     <t>홀스타인</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -325,22 +168,11 @@
     <t>B003</t>
   </si>
   <si>
-    <t>5.5 kg</t>
-  </si>
-  <si>
     <t>많음</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3L</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>B004</t>
-  </si>
-  <si>
-    <t>3.5L</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>B005</t>
@@ -367,20 +199,12 @@
     <t>B007</t>
   </si>
   <si>
-    <t>4L</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>B008</t>
   </si>
   <si>
     <t>Mastitis(24-02-05/24-02-10 치료); Leptospirosis(24-03-01/24-03-10 치료)</t>
   </si>
   <si>
-    <t>2.5L</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>B009</t>
   </si>
   <si>
@@ -390,17 +214,9 @@
     <t>B011</t>
   </si>
   <si>
-    <t>3.7L</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>B012</t>
   </si>
   <si>
-    <t>3.8L</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>B013</t>
   </si>
   <si>
@@ -410,10 +226,6 @@
     <t>B015</t>
   </si>
   <si>
-    <t>3.6L</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>B016</t>
   </si>
   <si>
@@ -429,25 +241,9 @@
     <t>B019</t>
   </si>
   <si>
-    <t>710kg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1L</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>B020</t>
   </si>
   <si>
-    <t>720kg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2L</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>B021</t>
   </si>
   <si>
@@ -457,21 +253,9 @@
     <t>B022</t>
   </si>
   <si>
-    <t>139cm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>B023</t>
   </si>
   <si>
-    <t>138cm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3L</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>B024</t>
   </si>
   <si>
@@ -488,10 +272,6 @@
   </si>
   <si>
     <t>B028</t>
-  </si>
-  <si>
-    <t>3.9L</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>B029</t>
@@ -1028,7 +808,7 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1121,7 +901,7 @@
         <v>24</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>25</v>
@@ -1129,58 +909,58 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="D2" s="6">
         <v>755835</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G2" s="9">
         <v>44197</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="I2" s="8">
+        <v>120</v>
+      </c>
+      <c r="J2" s="8">
+        <v>500</v>
       </c>
       <c r="K2" s="9">
         <v>44105</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>88</v>
+      <c r="L2" s="8">
+        <v>6</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N2" s="8">
         <v>38</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>26</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="T2" s="7" t="s">
         <v>26</v>
@@ -1195,59 +975,59 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="D3" s="6">
         <v>755835</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G3" s="9">
         <v>44228</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>93</v>
+        <v>28</v>
+      </c>
+      <c r="I3" s="8">
+        <v>121</v>
+      </c>
+      <c r="J3" s="8">
+        <v>510</v>
       </c>
       <c r="K3" s="9">
         <v>44106</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>94</v>
+      <c r="L3" s="8">
+        <v>5</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N3" s="8">
         <v>38.5</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="T3" s="7" t="s">
         <v>26</v>
@@ -1262,52 +1042,52 @@
     </row>
     <row r="4" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13">
         <v>755835</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G4" s="16">
         <v>44256</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="I4" s="15">
+        <v>122</v>
+      </c>
+      <c r="J4" s="15">
+        <v>520</v>
       </c>
       <c r="K4" s="16">
         <v>44107</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>97</v>
+      <c r="L4" s="15">
+        <v>5.5</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N4" s="15">
         <v>38.5</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="16">
         <v>44929</v>
@@ -1316,7 +1096,7 @@
         <v>26</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="T4" s="17" t="s">
         <v>26</v>
@@ -1329,60 +1109,60 @@
         <v>45202</v>
       </c>
       <c r="X4" s="18"/>
-      <c r="Y4" s="15" t="s">
-        <v>99</v>
+      <c r="Y4" s="15">
+        <v>3</v>
       </c>
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
     </row>
     <row r="5" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13">
         <v>755835</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G5" s="16">
         <v>44287</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="I5" s="15">
+        <v>123</v>
+      </c>
+      <c r="J5" s="15">
+        <v>530</v>
       </c>
       <c r="K5" s="16">
         <v>44108</v>
       </c>
-      <c r="L5" s="15" t="s">
-        <v>97</v>
+      <c r="L5" s="15">
+        <v>5.5</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N5" s="15">
         <v>38</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="16">
         <v>44846</v>
@@ -1391,7 +1171,7 @@
         <v>26</v>
       </c>
       <c r="S5" s="18" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="T5" s="17" t="s">
         <v>26</v>
@@ -1404,73 +1184,73 @@
         <v>45119</v>
       </c>
       <c r="X5" s="18"/>
-      <c r="Y5" s="15" t="s">
-        <v>101</v>
+      <c r="Y5" s="15">
+        <v>3.5</v>
       </c>
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6">
         <v>755835</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G6" s="9">
         <v>44317</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="I6" s="8">
+        <v>124</v>
+      </c>
+      <c r="J6" s="8">
+        <v>540</v>
       </c>
       <c r="K6" s="9">
         <v>44109</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>88</v>
+      <c r="L6" s="8">
+        <v>6</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="N6" s="8">
         <v>38.6</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="T6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="U6" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="V6" s="8"/>
       <c r="W6" s="10"/>
@@ -1481,59 +1261,59 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D7" s="6">
         <v>755835</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G7" s="9">
         <v>44348</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
+      </c>
+      <c r="I7" s="8">
+        <v>125</v>
+      </c>
+      <c r="J7" s="8">
+        <v>550</v>
       </c>
       <c r="K7" s="9">
         <v>44110</v>
       </c>
-      <c r="L7" s="8" t="s">
-        <v>94</v>
+      <c r="L7" s="8">
+        <v>5</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N7" s="8">
         <v>38</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="8"/>
       <c r="R7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="T7" s="7" t="s">
         <v>26</v>
@@ -1548,52 +1328,52 @@
     </row>
     <row r="8" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D8" s="13">
         <v>755835</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G8" s="16">
         <v>44378</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="I8" s="15">
+        <v>126</v>
+      </c>
+      <c r="J8" s="15">
+        <v>560</v>
       </c>
       <c r="K8" s="16">
         <v>44111</v>
       </c>
-      <c r="L8" s="15" t="s">
-        <v>97</v>
+      <c r="L8" s="15">
+        <v>5.5</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N8" s="15">
         <v>38.5</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="16">
         <v>44926</v>
@@ -1602,7 +1382,7 @@
         <v>26</v>
       </c>
       <c r="S8" s="18" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="T8" s="17" t="s">
         <v>26</v>
@@ -1615,60 +1395,60 @@
         <v>45199</v>
       </c>
       <c r="X8" s="18"/>
-      <c r="Y8" s="15" t="s">
-        <v>109</v>
+      <c r="Y8" s="15">
+        <v>4</v>
       </c>
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
     </row>
     <row r="9" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D9" s="13">
         <v>755835</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G9" s="16">
         <v>44409</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="I9" s="15">
+        <v>127</v>
+      </c>
+      <c r="J9" s="15">
+        <v>570</v>
       </c>
       <c r="K9" s="16">
         <v>44112</v>
       </c>
-      <c r="L9" s="15" t="s">
-        <v>97</v>
+      <c r="L9" s="15">
+        <v>5.5</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N9" s="15">
         <v>38.5</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="18">
         <v>44875</v>
@@ -1677,13 +1457,13 @@
         <v>26</v>
       </c>
       <c r="S9" s="18" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="T9" s="17" t="s">
         <v>26</v>
       </c>
       <c r="U9" s="20" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="V9" s="15">
         <v>1</v>
@@ -1692,67 +1472,67 @@
         <v>45148</v>
       </c>
       <c r="X9" s="18"/>
-      <c r="Y9" s="15" t="s">
-        <v>112</v>
+      <c r="Y9" s="15">
+        <v>2.5</v>
       </c>
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D10" s="6">
         <v>755835</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G10" s="9">
         <v>44440</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="I10" s="8">
+        <v>128</v>
+      </c>
+      <c r="J10" s="8">
+        <v>580</v>
       </c>
       <c r="K10" s="9">
         <v>44113</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>88</v>
+      <c r="L10" s="8">
+        <v>6</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N10" s="8">
         <v>38</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="T10" s="7" t="s">
         <v>26</v>
@@ -1767,59 +1547,59 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6">
         <v>755835</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G11" s="9">
         <v>44470</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="I11" s="8">
+        <v>129</v>
+      </c>
+      <c r="J11" s="8">
+        <v>590</v>
       </c>
       <c r="K11" s="9">
         <v>44114</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>94</v>
+      <c r="L11" s="8">
+        <v>5</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="N11" s="8">
         <v>38.6</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="10"/>
       <c r="R11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="T11" s="7" t="s">
         <v>26</v>
@@ -1834,52 +1614,52 @@
     </row>
     <row r="12" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D12" s="13">
         <v>755835</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G12" s="16">
         <v>44501</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>51</v>
+        <v>32</v>
+      </c>
+      <c r="I12" s="15">
+        <v>130</v>
+      </c>
+      <c r="J12" s="15">
+        <v>600</v>
       </c>
       <c r="K12" s="16">
         <v>44115</v>
       </c>
-      <c r="L12" s="15" t="s">
-        <v>97</v>
+      <c r="L12" s="15">
+        <v>5.5</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N12" s="15">
         <v>38</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="18">
         <v>44725</v>
@@ -1888,7 +1668,7 @@
         <v>26</v>
       </c>
       <c r="S12" s="18" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="T12" s="17" t="s">
         <v>26</v>
@@ -1901,60 +1681,60 @@
         <v>44998</v>
       </c>
       <c r="X12" s="18"/>
-      <c r="Y12" s="15" t="s">
-        <v>116</v>
+      <c r="Y12" s="15">
+        <v>3.7</v>
       </c>
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
     </row>
     <row r="13" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D13" s="13">
         <v>755835</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G13" s="16">
         <v>44531</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="I13" s="15">
+        <v>131</v>
+      </c>
+      <c r="J13" s="15">
+        <v>610</v>
       </c>
       <c r="K13" s="16">
         <v>44116</v>
       </c>
-      <c r="L13" s="15" t="s">
-        <v>97</v>
+      <c r="L13" s="15">
+        <v>5.5</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N13" s="15">
         <v>38.5</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="18">
         <v>44772</v>
@@ -1963,7 +1743,7 @@
         <v>26</v>
       </c>
       <c r="S13" s="18" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="T13" s="17" t="s">
         <v>26</v>
@@ -1976,67 +1756,67 @@
         <v>45046</v>
       </c>
       <c r="X13" s="18"/>
-      <c r="Y13" s="15" t="s">
-        <v>118</v>
+      <c r="Y13" s="15">
+        <v>3.8</v>
       </c>
       <c r="Z13" s="15"/>
       <c r="AA13" s="15"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D14" s="6">
         <v>755835</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G14" s="9">
         <v>44562</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="I14" s="8">
+        <v>132</v>
+      </c>
+      <c r="J14" s="8">
+        <v>620</v>
       </c>
       <c r="K14" s="9">
         <v>44117</v>
       </c>
-      <c r="L14" s="8" t="s">
-        <v>88</v>
+      <c r="L14" s="8">
+        <v>6</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N14" s="8">
         <v>38.5</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="10"/>
       <c r="R14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="T14" s="7" t="s">
         <v>26</v>
@@ -2051,59 +1831,59 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D15" s="6">
         <v>755835</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G15" s="9">
         <v>44593</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="I15" s="8">
+        <v>133</v>
+      </c>
+      <c r="J15" s="8">
+        <v>630</v>
       </c>
       <c r="K15" s="9">
         <v>44118</v>
       </c>
-      <c r="L15" s="8" t="s">
-        <v>94</v>
+      <c r="L15" s="8">
+        <v>5</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N15" s="8">
         <v>38</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="T15" s="7" t="s">
         <v>26</v>
@@ -2118,52 +1898,52 @@
     </row>
     <row r="16" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D16" s="13">
         <v>755835</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G16" s="16">
         <v>44621</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="I16" s="15">
+        <v>134</v>
+      </c>
+      <c r="J16" s="15">
+        <v>640</v>
       </c>
       <c r="K16" s="16">
         <v>44119</v>
       </c>
-      <c r="L16" s="15" t="s">
-        <v>97</v>
+      <c r="L16" s="15">
+        <v>5.5</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="N16" s="15">
         <v>38.6</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="Q16" s="18">
         <v>44931</v>
@@ -2172,7 +1952,7 @@
         <v>26</v>
       </c>
       <c r="S16" s="18" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="T16" s="17" t="s">
         <v>26</v>
@@ -2185,60 +1965,60 @@
         <v>45204</v>
       </c>
       <c r="X16" s="18"/>
-      <c r="Y16" s="15" t="s">
-        <v>122</v>
+      <c r="Y16" s="15">
+        <v>3.6</v>
       </c>
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
     </row>
     <row r="17" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D17" s="13">
         <v>755835</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G17" s="16">
         <v>44652</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>61</v>
+        <v>32</v>
+      </c>
+      <c r="I17" s="15">
+        <v>135</v>
+      </c>
+      <c r="J17" s="15">
+        <v>650</v>
       </c>
       <c r="K17" s="16">
         <v>44120</v>
       </c>
-      <c r="L17" s="15" t="s">
-        <v>97</v>
+      <c r="L17" s="15">
+        <v>5.5</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N17" s="15">
         <v>38</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="18">
         <v>44958</v>
@@ -2247,7 +2027,7 @@
         <v>26</v>
       </c>
       <c r="S17" s="18" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="T17" s="17" t="s">
         <v>26</v>
@@ -2260,73 +2040,73 @@
         <v>45231</v>
       </c>
       <c r="X17" s="18"/>
-      <c r="Y17" s="15" t="s">
-        <v>99</v>
+      <c r="Y17" s="15">
+        <v>3</v>
       </c>
       <c r="Z17" s="15"/>
       <c r="AA17" s="15"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D18" s="6">
         <v>755835</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G18" s="9">
         <v>44682</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="I18" s="8">
+        <v>136</v>
+      </c>
+      <c r="J18" s="8">
+        <v>660</v>
       </c>
       <c r="K18" s="9">
         <v>44121</v>
       </c>
-      <c r="L18" s="8" t="s">
-        <v>88</v>
+      <c r="L18" s="8">
+        <v>6</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N18" s="8">
         <v>38.5</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="7" t="s">
         <v>26</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="T18" s="7" t="s">
         <v>26</v>
       </c>
       <c r="U18" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="V18" s="8"/>
       <c r="W18" s="10"/>
@@ -2337,59 +2117,59 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D19" s="6">
         <v>755835</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G19" s="9">
         <v>44713</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="I19" s="8">
+        <v>137</v>
+      </c>
+      <c r="J19" s="8">
+        <v>670</v>
       </c>
       <c r="K19" s="9">
         <v>44122</v>
       </c>
-      <c r="L19" s="8" t="s">
-        <v>94</v>
+      <c r="L19" s="8">
+        <v>5</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N19" s="8">
         <v>38.5</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="10"/>
       <c r="R19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>26</v>
@@ -2404,52 +2184,52 @@
     </row>
     <row r="20" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D20" s="13">
         <v>755835</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G20" s="16">
         <v>44743</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>128</v>
+        <v>32</v>
+      </c>
+      <c r="I20" s="15">
+        <v>138</v>
+      </c>
+      <c r="J20" s="15">
+        <v>710</v>
       </c>
       <c r="K20" s="16">
         <v>44123</v>
       </c>
-      <c r="L20" s="15" t="s">
-        <v>97</v>
+      <c r="L20" s="15">
+        <v>5.5</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N20" s="15">
         <v>38</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="18">
         <v>44914</v>
@@ -2458,7 +2238,7 @@
         <v>26</v>
       </c>
       <c r="S20" s="18" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="T20" s="17" t="s">
         <v>26</v>
@@ -2471,60 +2251,60 @@
         <v>45188</v>
       </c>
       <c r="X20" s="18"/>
-      <c r="Y20" s="15" t="s">
-        <v>129</v>
+      <c r="Y20" s="15">
+        <v>3.1</v>
       </c>
       <c r="Z20" s="15"/>
       <c r="AA20" s="15"/>
     </row>
     <row r="21" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D21" s="13">
         <v>755835</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G21" s="16">
         <v>44774</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>131</v>
+        <v>32</v>
+      </c>
+      <c r="I21" s="15">
+        <v>139</v>
+      </c>
+      <c r="J21" s="15">
+        <v>720</v>
       </c>
       <c r="K21" s="16">
         <v>44124</v>
       </c>
-      <c r="L21" s="15" t="s">
-        <v>97</v>
+      <c r="L21" s="15">
+        <v>5.5</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="N21" s="15">
         <v>38.6</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="18">
         <v>45021</v>
@@ -2533,7 +2313,7 @@
         <v>26</v>
       </c>
       <c r="S21" s="18" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="T21" s="17" t="s">
         <v>26</v>
@@ -2546,73 +2326,73 @@
         <v>45265</v>
       </c>
       <c r="X21" s="18"/>
-      <c r="Y21" s="15" t="s">
-        <v>132</v>
+      <c r="Y21" s="15">
+        <v>3.2</v>
       </c>
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
     </row>
     <row r="22" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D22" s="21">
         <v>755835</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G22" s="24">
         <v>44805</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>69</v>
+        <v>49</v>
+      </c>
+      <c r="I22" s="23">
+        <v>140</v>
+      </c>
+      <c r="J22" s="23">
+        <v>730</v>
       </c>
       <c r="K22" s="24">
         <v>44125</v>
       </c>
-      <c r="L22" s="23" t="s">
-        <v>88</v>
+      <c r="L22" s="23">
+        <v>6</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N22" s="23">
         <v>38</v>
       </c>
       <c r="O22" s="23" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="P22" s="23" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="25"/>
       <c r="R22" s="26" t="s">
         <v>26</v>
       </c>
       <c r="S22" s="25" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="T22" s="26" t="s">
         <v>26</v>
       </c>
       <c r="U22" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="V22" s="23"/>
       <c r="W22" s="25"/>
@@ -2623,59 +2403,59 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D23" s="6">
         <v>755835</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G23" s="9">
         <v>44835</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>70</v>
+        <v>49</v>
+      </c>
+      <c r="I23" s="8">
+        <v>139</v>
+      </c>
+      <c r="J23" s="8">
+        <v>740</v>
       </c>
       <c r="K23" s="9">
         <v>44126</v>
       </c>
-      <c r="L23" s="8" t="s">
-        <v>94</v>
+      <c r="L23" s="8">
+        <v>5</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N23" s="8">
         <v>38.5</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="10"/>
       <c r="R23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="T23" s="7" t="s">
         <v>26</v>
@@ -2690,52 +2470,52 @@
     </row>
     <row r="24" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D24" s="13">
         <v>755835</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G24" s="16">
         <v>44866</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="15">
         <v>138</v>
       </c>
-      <c r="J24" s="15" t="s">
-        <v>71</v>
+      <c r="J24" s="15">
+        <v>750</v>
       </c>
       <c r="K24" s="16">
         <v>44127</v>
       </c>
-      <c r="L24" s="15" t="s">
-        <v>97</v>
+      <c r="L24" s="15">
+        <v>5.5</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N24" s="15">
         <v>38.5</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="18">
         <v>45107</v>
@@ -2744,7 +2524,7 @@
         <v>26</v>
       </c>
       <c r="S24" s="18" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="T24" s="17" t="s">
         <v>26</v>
@@ -2757,60 +2537,60 @@
         <v>45381</v>
       </c>
       <c r="X24" s="18"/>
-      <c r="Y24" s="15" t="s">
-        <v>139</v>
+      <c r="Y24" s="15">
+        <v>3.3</v>
       </c>
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
     </row>
     <row r="25" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D25" s="13">
         <v>755835</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G25" s="16">
         <v>44896</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>72</v>
+        <v>32</v>
+      </c>
+      <c r="I25" s="15">
+        <v>137</v>
+      </c>
+      <c r="J25" s="15">
+        <v>760</v>
       </c>
       <c r="K25" s="16">
         <v>44128</v>
       </c>
-      <c r="L25" s="15" t="s">
-        <v>97</v>
+      <c r="L25" s="15">
+        <v>5.5</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N25" s="15">
         <v>38</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="18">
         <v>44986</v>
@@ -2819,7 +2599,7 @@
         <v>26</v>
       </c>
       <c r="S25" s="18" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="T25" s="17" t="s">
         <v>26</v>
@@ -2832,73 +2612,73 @@
         <v>45261</v>
       </c>
       <c r="X25" s="18"/>
-      <c r="Y25" s="15" t="s">
-        <v>122</v>
+      <c r="Y25" s="15">
+        <v>3.6</v>
       </c>
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D26" s="6">
         <v>755835</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G26" s="9">
         <v>44927</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>73</v>
+        <v>49</v>
+      </c>
+      <c r="I26" s="8">
+        <v>136</v>
+      </c>
+      <c r="J26" s="8">
+        <v>770</v>
       </c>
       <c r="K26" s="9">
         <v>44129</v>
       </c>
-      <c r="L26" s="8" t="s">
-        <v>88</v>
+      <c r="L26" s="8">
+        <v>6</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="N26" s="8">
         <v>38.6</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="Q26" s="10"/>
       <c r="R26" s="7" t="s">
         <v>26</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="T26" s="7" t="s">
         <v>26</v>
       </c>
       <c r="U26" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="V26" s="8"/>
       <c r="W26" s="10"/>
@@ -2909,59 +2689,59 @@
     </row>
     <row r="27" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D27" s="21">
         <v>755835</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G27" s="24">
         <v>44958</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>74</v>
+        <v>49</v>
+      </c>
+      <c r="I27" s="23">
+        <v>135</v>
+      </c>
+      <c r="J27" s="23">
+        <v>780</v>
       </c>
       <c r="K27" s="24">
         <v>44130</v>
       </c>
-      <c r="L27" s="23" t="s">
-        <v>94</v>
+      <c r="L27" s="23">
+        <v>5</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N27" s="23">
         <v>38</v>
       </c>
       <c r="O27" s="23" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="P27" s="23" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="25"/>
       <c r="R27" s="26" t="s">
         <v>26</v>
       </c>
       <c r="S27" s="25" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="T27" s="26" t="s">
         <v>26</v>
@@ -2976,52 +2756,52 @@
     </row>
     <row r="28" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D28" s="13">
         <v>755835</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G28" s="16">
         <v>44986</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>75</v>
+        <v>32</v>
+      </c>
+      <c r="I28" s="15">
+        <v>134</v>
+      </c>
+      <c r="J28" s="15">
+        <v>790</v>
       </c>
       <c r="K28" s="16">
         <v>44131</v>
       </c>
-      <c r="L28" s="15" t="s">
-        <v>97</v>
+      <c r="L28" s="15">
+        <v>5.5</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N28" s="15">
         <v>38.5</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="18">
         <v>44927</v>
@@ -3030,7 +2810,7 @@
         <v>26</v>
       </c>
       <c r="S28" s="18" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="T28" s="17" t="s">
         <v>26</v>
@@ -3043,60 +2823,60 @@
         <v>45168</v>
       </c>
       <c r="X28" s="18"/>
-      <c r="Y28" s="15" t="s">
-        <v>118</v>
+      <c r="Y28" s="15">
+        <v>3.8</v>
       </c>
       <c r="Z28" s="15"/>
       <c r="AA28" s="15"/>
     </row>
     <row r="29" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D29" s="13">
         <v>755835</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G29" s="16">
         <v>45017</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>76</v>
+        <v>32</v>
+      </c>
+      <c r="I29" s="15">
+        <v>133</v>
+      </c>
+      <c r="J29" s="15">
+        <v>800</v>
       </c>
       <c r="K29" s="16">
         <v>44132</v>
       </c>
-      <c r="L29" s="15" t="s">
-        <v>97</v>
+      <c r="L29" s="15">
+        <v>5.5</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N29" s="15">
         <v>38.5</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q29" s="28">
         <v>45507</v>
@@ -3105,7 +2885,7 @@
         <v>26</v>
       </c>
       <c r="S29" s="18" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="T29" s="17" t="s">
         <v>26</v>
@@ -3118,67 +2898,67 @@
       <c r="X29" s="18">
         <v>45780</v>
       </c>
-      <c r="Y29" s="15" t="s">
-        <v>146</v>
+      <c r="Y29" s="15">
+        <v>3.9</v>
       </c>
       <c r="Z29" s="15"/>
       <c r="AA29" s="15"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D30" s="6">
         <v>755835</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G30" s="9">
         <v>45047</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>77</v>
+        <v>49</v>
+      </c>
+      <c r="I30" s="8">
+        <v>132</v>
+      </c>
+      <c r="J30" s="8">
+        <v>810</v>
       </c>
       <c r="K30" s="9">
         <v>44133</v>
       </c>
-      <c r="L30" s="8" t="s">
-        <v>88</v>
+      <c r="L30" s="8">
+        <v>6</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="N30" s="8">
         <v>38</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="Q30" s="10"/>
       <c r="R30" s="7" t="s">
         <v>26</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="T30" s="7" t="s">
         <v>26</v>
@@ -3193,59 +2973,59 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D31" s="6">
         <v>755835</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G31" s="9">
         <v>45078</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>78</v>
+        <v>49</v>
+      </c>
+      <c r="I31" s="8">
+        <v>131</v>
+      </c>
+      <c r="J31" s="8">
+        <v>820</v>
       </c>
       <c r="K31" s="9">
         <v>44134</v>
       </c>
-      <c r="L31" s="8" t="s">
-        <v>94</v>
+      <c r="L31" s="8">
+        <v>5</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="N31" s="8">
         <v>38.6</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="Q31" s="10"/>
       <c r="R31" s="7" t="s">
         <v>26</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="T31" s="7" t="s">
         <v>26</v>
